--- a/BrightFresh Locations - Custom Store Locator.xlsx
+++ b/BrightFresh Locations - Custom Store Locator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.prinz\Desktop\Store-Locator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD47D3-7F64-4022-B37A-F176BE5C5231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE336B8-EAD9-4BB9-B2E8-E7CCE46A25D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{3DC65A5D-3030-48AF-89D1-5367964F4F87}"/>
   </bookViews>
